--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>12/29/2025</t>
         </is>
       </c>
       <c r="E2">
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>12/29/2025</t>
         </is>
       </c>
       <c r="E3">

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Project Associate - Finance and Admin (Open to external applicants)</t>
+          <t>Communications Analyst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,37 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12/29/2025</t>
+          <t>01/16/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28247/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Data Analytics and Strategic Insights Analyst</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12/29/2025</t>
-        </is>
-      </c>
-      <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31017/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31299/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>01/21/2026</t>
+        </is>
+      </c>
+      <c r="E2">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Communications Analyst</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>New Delhi, India</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>01/16/2026</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="E3">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31299/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,11 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01/21/2026</t>
+          <t>01/26/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -494,20 +494,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Project Accounting &amp; Financial Management Officer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>01/26/2026</t>
+        </is>
+      </c>
+      <c r="E3">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01/21/2026</t>
+        </is>
+      </c>
+      <c r="E4">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Communications Analyst</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>New Delhi, India</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>01/16/2026</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="E5">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31299/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,32 +538,6 @@
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Communications Analyst</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/16/2026</t>
-        </is>
-      </c>
-      <c r="E5">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31299/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Human Resources Associate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,11 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01/26/2026</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
+          <t>Human Resources Associate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,11 +504,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01/26/2026</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -520,20 +520,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Finance Analyst</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01/26/2026</t>
+        </is>
+      </c>
+      <c r="E4">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Project Accounting &amp; Financial Management Officer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/26/2026</t>
+        </is>
+      </c>
+      <c r="E5">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>New Delhi, India</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>01/21/2026</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="E6">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Human Resources Associate</t>
+          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,11 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Human Resources Associate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,11 +530,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01/26/2026</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -572,20 +572,46 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Project Accounting &amp; Financial Management Officer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>New Delhi, India</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/26/2026</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Oracle Careers</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>New Delhi, India</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>01/21/2026</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
+          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,11 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02/04/2026</t>
+          <t>02/05/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Human Resources Associate</t>
+          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,11 +504,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Human Resources Associate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,11 +556,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01/26/2026</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
+          <t>Project Accounting &amp; Financial Management Officer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -608,11 +608,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01/21/2026</t>
+          <t>01/26/2026</t>
         </is>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agri Finance and R&amp;D Specialist (Open to external applicants)</t>
+          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,11 +478,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02/05/2026</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31390/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
+          <t>Human Resources Associate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,11 +504,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02/04/2026</t>
+          <t>02/01/2026</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Human Resources Associate</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,11 +556,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>01/26/2026</t>
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Project Accounting &amp; Financial Management Officer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,32 +586,6 @@
         </is>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01/26/2026</t>
-        </is>
-      </c>
-      <c r="E7">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31613/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Human Resources Associate</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,11 +530,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>01/26/2026</t>
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Project Accounting &amp; Financial Management Officer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,32 +560,6 @@
         </is>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01/26/2026</t>
-        </is>
-      </c>
-      <c r="E6">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Human Resources Associate</t>
+          <t>Finance Analyst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,11 +504,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02/01/2026</t>
+          <t>01/26/2026</t>
         </is>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31614/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
+        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Finance Analyst</t>
+          <t>Project Accounting &amp; Financial Management Officer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -534,32 +534,6 @@
         </is>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/26/2026</t>
-        </is>
-      </c>
-      <c r="E5">
         <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
         <v/>
       </c>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,32 +512,6 @@
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Project Accounting &amp; Financial Management Officer</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>01/26/2026</t>
-        </is>
-      </c>
-      <c r="E4">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31469/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/oracle_india_jobs.xlsx
+++ b/output/oracle_india_jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,32 +486,6 @@
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Oracle Careers</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Finance Analyst</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>New Delhi, India</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>01/26/2026</t>
-        </is>
-      </c>
-      <c r="E3">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/31468/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
